--- a/Data/Fixed-Fixed-Test.xlsx
+++ b/Data/Fixed-Fixed-Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,40 +369,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>d1</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>d2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Max_Deflection</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Average_Deflection</t>
         </is>
@@ -413,24 +408,21 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D2" t="n">
-        <v>510</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>52.613</v>
       </c>
       <c r="F2" t="n">
-        <v>52.613</v>
+        <v>7.553999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>7.553999999999999</v>
-      </c>
-      <c r="H2" t="n">
         <v>3.803</v>
       </c>
     </row>
@@ -439,24 +431,21 @@
         <v>0.5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>144.79</v>
       </c>
       <c r="F3" t="n">
-        <v>144.79</v>
+        <v>7.2355</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2355</v>
-      </c>
-      <c r="H3" t="n">
         <v>3.6191</v>
       </c>
     </row>
@@ -465,24 +454,21 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D4" t="n">
-        <v>510</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>283.54</v>
       </c>
       <c r="F4" t="n">
-        <v>283.54</v>
+        <v>7.3149</v>
       </c>
       <c r="G4" t="n">
-        <v>7.3149</v>
-      </c>
-      <c r="H4" t="n">
         <v>4.0421</v>
       </c>
     </row>
@@ -491,24 +477,21 @@
         <v>0.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D5" t="n">
-        <v>510</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>322.53</v>
       </c>
       <c r="F5" t="n">
-        <v>322.53</v>
+        <v>11.855</v>
       </c>
       <c r="G5" t="n">
-        <v>11.855</v>
-      </c>
-      <c r="H5" t="n">
         <v>4.5453</v>
       </c>
     </row>
@@ -517,24 +500,21 @@
         <v>0.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>63</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D6" t="n">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>468.26</v>
       </c>
       <c r="F6" t="n">
-        <v>468.26</v>
+        <v>7.4041</v>
       </c>
       <c r="G6" t="n">
-        <v>7.4041</v>
-      </c>
-      <c r="H6" t="n">
         <v>3.8655</v>
       </c>
     </row>
@@ -543,24 +523,21 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>63</v>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D7" t="n">
-        <v>510</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>489.25</v>
       </c>
       <c r="F7" t="n">
-        <v>489.25</v>
+        <v>7.4189</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4189</v>
-      </c>
-      <c r="H7" t="n">
         <v>3.8899</v>
       </c>
     </row>
@@ -569,24 +546,21 @@
         <v>0.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>255</v>
       </c>
       <c r="C8" t="n">
-        <v>255</v>
+        <v>742</v>
       </c>
       <c r="D8" t="n">
-        <v>742</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>52.73</v>
       </c>
       <c r="F8" t="n">
-        <v>52.73</v>
+        <v>7.5491</v>
       </c>
       <c r="G8" t="n">
-        <v>7.5491</v>
-      </c>
-      <c r="H8" t="n">
         <v>3.8768</v>
       </c>
     </row>
@@ -595,24 +569,21 @@
         <v>0.5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>255</v>
       </c>
       <c r="C9" t="n">
-        <v>255</v>
+        <v>742</v>
       </c>
       <c r="D9" t="n">
-        <v>742</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="F9" t="n">
-        <v>145</v>
+        <v>7.2373</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2373</v>
-      </c>
-      <c r="H9" t="n">
         <v>4.59</v>
       </c>
     </row>
@@ -621,24 +592,21 @@
         <v>0.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>255</v>
       </c>
       <c r="C10" t="n">
-        <v>255</v>
+        <v>742</v>
       </c>
       <c r="D10" t="n">
-        <v>742</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>284.56</v>
       </c>
       <c r="F10" t="n">
-        <v>284.56</v>
+        <v>7.3335</v>
       </c>
       <c r="G10" t="n">
-        <v>7.3335</v>
-      </c>
-      <c r="H10" t="n">
         <v>4.6257</v>
       </c>
     </row>
@@ -647,24 +615,21 @@
         <v>0.5</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>255</v>
       </c>
       <c r="C11" t="n">
-        <v>255</v>
+        <v>742</v>
       </c>
       <c r="D11" t="n">
-        <v>742</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>322.74</v>
       </c>
       <c r="F11" t="n">
-        <v>322.74</v>
+        <v>11.865</v>
       </c>
       <c r="G11" t="n">
-        <v>11.865</v>
-      </c>
-      <c r="H11" t="n">
         <v>4.7365</v>
       </c>
     </row>
@@ -673,24 +638,21 @@
         <v>0.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>255</v>
       </c>
       <c r="C12" t="n">
-        <v>255</v>
+        <v>742</v>
       </c>
       <c r="D12" t="n">
-        <v>742</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>468.82</v>
       </c>
       <c r="F12" t="n">
-        <v>468.82</v>
+        <v>7.4455</v>
       </c>
       <c r="G12" t="n">
-        <v>7.4455</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.8296</v>
       </c>
     </row>
@@ -699,24 +661,21 @@
         <v>0.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>255</v>
       </c>
       <c r="C13" t="n">
-        <v>255</v>
+        <v>742</v>
       </c>
       <c r="D13" t="n">
-        <v>742</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>489.27</v>
       </c>
       <c r="F13" t="n">
-        <v>489.27</v>
+        <v>7.4189</v>
       </c>
       <c r="G13" t="n">
-        <v>7.4189</v>
-      </c>
-      <c r="H13" t="n">
         <v>3.9768</v>
       </c>
     </row>
@@ -725,24 +684,21 @@
         <v>0.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>284</v>
       </c>
       <c r="C14" t="n">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D14" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>52.718</v>
       </c>
       <c r="F14" t="n">
-        <v>52.718</v>
+        <v>7.5589</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5589</v>
-      </c>
-      <c r="H14" t="n">
         <v>4.2583</v>
       </c>
     </row>
@@ -751,24 +707,21 @@
         <v>0.5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>284</v>
       </c>
       <c r="C15" t="n">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D15" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>145.59</v>
       </c>
       <c r="F15" t="n">
-        <v>145.59</v>
+        <v>7.2449</v>
       </c>
       <c r="G15" t="n">
-        <v>7.2449</v>
-      </c>
-      <c r="H15" t="n">
         <v>4.4668</v>
       </c>
     </row>
@@ -777,24 +730,21 @@
         <v>0.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>284</v>
       </c>
       <c r="C16" t="n">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D16" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>284.71</v>
       </c>
       <c r="F16" t="n">
-        <v>284.71</v>
+        <v>7.342000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>7.342000000000001</v>
-      </c>
-      <c r="H16" t="n">
         <v>4.0085</v>
       </c>
     </row>
@@ -803,24 +753,21 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>284</v>
       </c>
       <c r="C17" t="n">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D17" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>322.95</v>
       </c>
       <c r="F17" t="n">
-        <v>322.95</v>
+        <v>11.859</v>
       </c>
       <c r="G17" t="n">
-        <v>11.859</v>
-      </c>
-      <c r="H17" t="n">
         <v>5.0308</v>
       </c>
     </row>
@@ -829,24 +776,21 @@
         <v>0.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5</v>
+        <v>284</v>
       </c>
       <c r="C18" t="n">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D18" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>470.43</v>
       </c>
       <c r="F18" t="n">
-        <v>470.43</v>
+        <v>7.4485</v>
       </c>
       <c r="G18" t="n">
-        <v>7.4485</v>
-      </c>
-      <c r="H18" t="n">
         <v>4.2504</v>
       </c>
     </row>
@@ -855,24 +799,21 @@
         <v>0.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5</v>
+        <v>284</v>
       </c>
       <c r="C19" t="n">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D19" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>489.29</v>
       </c>
       <c r="F19" t="n">
-        <v>489.29</v>
+        <v>7.4191</v>
       </c>
       <c r="G19" t="n">
-        <v>7.4191</v>
-      </c>
-      <c r="H19" t="n">
         <v>4.3315</v>
       </c>
     </row>
@@ -881,24 +822,21 @@
         <v>0.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="C20" t="n">
-        <v>290</v>
+        <v>804</v>
       </c>
       <c r="D20" t="n">
-        <v>804</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>52.76</v>
       </c>
       <c r="F20" t="n">
-        <v>52.76</v>
+        <v>7.5506</v>
       </c>
       <c r="G20" t="n">
-        <v>7.5506</v>
-      </c>
-      <c r="H20" t="n">
         <v>3.8753</v>
       </c>
     </row>
@@ -907,24 +845,21 @@
         <v>0.5</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="C21" t="n">
-        <v>290</v>
+        <v>804</v>
       </c>
       <c r="D21" t="n">
-        <v>804</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>145.28</v>
       </c>
       <c r="F21" t="n">
-        <v>145.28</v>
+        <v>7.2316</v>
       </c>
       <c r="G21" t="n">
-        <v>7.2316</v>
-      </c>
-      <c r="H21" t="n">
         <v>4.5288</v>
       </c>
     </row>
@@ -933,24 +868,21 @@
         <v>0.5</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="C22" t="n">
-        <v>290</v>
+        <v>804</v>
       </c>
       <c r="D22" t="n">
-        <v>804</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>285.02</v>
       </c>
       <c r="F22" t="n">
-        <v>285.02</v>
+        <v>7.3234</v>
       </c>
       <c r="G22" t="n">
-        <v>7.3234</v>
-      </c>
-      <c r="H22" t="n">
         <v>4.6428</v>
       </c>
     </row>
@@ -959,24 +891,21 @@
         <v>0.5</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="C23" t="n">
-        <v>290</v>
+        <v>804</v>
       </c>
       <c r="D23" t="n">
-        <v>804</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>322.82</v>
       </c>
       <c r="F23" t="n">
-        <v>322.82</v>
+        <v>11.862</v>
       </c>
       <c r="G23" t="n">
-        <v>11.862</v>
-      </c>
-      <c r="H23" t="n">
         <v>4.7562</v>
       </c>
     </row>
@@ -985,24 +914,21 @@
         <v>0.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="C24" t="n">
-        <v>290</v>
+        <v>804</v>
       </c>
       <c r="D24" t="n">
-        <v>804</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>469.44</v>
       </c>
       <c r="F24" t="n">
-        <v>469.44</v>
+        <v>7.397</v>
       </c>
       <c r="G24" t="n">
-        <v>7.397</v>
-      </c>
-      <c r="H24" t="n">
         <v>4.126</v>
       </c>
     </row>
@@ -1011,24 +937,21 @@
         <v>0.5</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="C25" t="n">
-        <v>290</v>
+        <v>804</v>
       </c>
       <c r="D25" t="n">
-        <v>804</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>489.3</v>
       </c>
       <c r="F25" t="n">
-        <v>489.3</v>
+        <v>7.4199</v>
       </c>
       <c r="G25" t="n">
-        <v>7.4199</v>
-      </c>
-      <c r="H25" t="n">
         <v>3.9794</v>
       </c>
     </row>
@@ -1037,24 +960,21 @@
         <v>0.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5</v>
+        <v>440</v>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="D26" t="n">
-        <v>639</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>52.692</v>
       </c>
       <c r="F26" t="n">
-        <v>52.692</v>
+        <v>7.5556</v>
       </c>
       <c r="G26" t="n">
-        <v>7.5556</v>
-      </c>
-      <c r="H26" t="n">
         <v>4.5087</v>
       </c>
     </row>
@@ -1063,24 +983,21 @@
         <v>0.5</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5</v>
+        <v>440</v>
       </c>
       <c r="C27" t="n">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="D27" t="n">
-        <v>639</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>145.18</v>
       </c>
       <c r="F27" t="n">
-        <v>145.18</v>
+        <v>7.2395</v>
       </c>
       <c r="G27" t="n">
-        <v>7.2395</v>
-      </c>
-      <c r="H27" t="n">
         <v>4.1636</v>
       </c>
     </row>
@@ -1089,24 +1006,21 @@
         <v>0.5</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5</v>
+        <v>440</v>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="D28" t="n">
-        <v>639</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>284.55</v>
       </c>
       <c r="F28" t="n">
-        <v>284.55</v>
+        <v>7.3208</v>
       </c>
       <c r="G28" t="n">
-        <v>7.3208</v>
-      </c>
-      <c r="H28" t="n">
         <v>3.8872</v>
       </c>
     </row>
@@ -1115,24 +1029,21 @@
         <v>0.5</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5</v>
+        <v>440</v>
       </c>
       <c r="C29" t="n">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="D29" t="n">
-        <v>639</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>322.86</v>
       </c>
       <c r="F29" t="n">
-        <v>322.86</v>
+        <v>11.863</v>
       </c>
       <c r="G29" t="n">
-        <v>11.863</v>
-      </c>
-      <c r="H29" t="n">
         <v>5.2121</v>
       </c>
     </row>
@@ -1141,24 +1052,21 @@
         <v>0.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5</v>
+        <v>440</v>
       </c>
       <c r="C30" t="n">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="D30" t="n">
-        <v>639</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>470.09</v>
       </c>
       <c r="F30" t="n">
-        <v>470.09</v>
+        <v>7.4256</v>
       </c>
       <c r="G30" t="n">
-        <v>7.4256</v>
-      </c>
-      <c r="H30" t="n">
         <v>4.4657</v>
       </c>
     </row>
@@ -1167,24 +1075,21 @@
         <v>0.5</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5</v>
+        <v>440</v>
       </c>
       <c r="C31" t="n">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="D31" t="n">
-        <v>639</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>489.29</v>
       </c>
       <c r="F31" t="n">
-        <v>489.29</v>
+        <v>7.4191</v>
       </c>
       <c r="G31" t="n">
-        <v>7.4191</v>
-      </c>
-      <c r="H31" t="n">
         <v>4.5619</v>
       </c>
     </row>
@@ -1193,24 +1098,21 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="D32" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>52.683</v>
       </c>
       <c r="F32" t="n">
-        <v>52.683</v>
+        <v>7.5556</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5556</v>
-      </c>
-      <c r="H32" t="n">
         <v>3.4349</v>
       </c>
     </row>
@@ -1219,24 +1121,21 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="D33" t="n">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>144.95</v>
       </c>
       <c r="F33" t="n">
-        <v>144.95</v>
+        <v>7.2322</v>
       </c>
       <c r="G33" t="n">
-        <v>7.2322</v>
-      </c>
-      <c r="H33" t="n">
         <v>3.7386</v>
       </c>
     </row>
@@ -1245,24 +1144,21 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="D34" t="n">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>283.83</v>
       </c>
       <c r="F34" t="n">
-        <v>283.83</v>
+        <v>7.325</v>
       </c>
       <c r="G34" t="n">
-        <v>7.325</v>
-      </c>
-      <c r="H34" t="n">
         <v>3.9154</v>
       </c>
     </row>
@@ -1271,24 +1167,21 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="D35" t="n">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>322.55</v>
       </c>
       <c r="F35" t="n">
-        <v>322.55</v>
+        <v>11.856</v>
       </c>
       <c r="G35" t="n">
-        <v>11.856</v>
-      </c>
-      <c r="H35" t="n">
         <v>4.2087</v>
       </c>
     </row>
@@ -1297,24 +1190,21 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="D36" t="n">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>468.95</v>
       </c>
       <c r="F36" t="n">
-        <v>468.95</v>
+        <v>7.3962</v>
       </c>
       <c r="G36" t="n">
-        <v>7.3962</v>
-      </c>
-      <c r="H36" t="n">
         <v>3.9576</v>
       </c>
     </row>
@@ -1323,24 +1213,21 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="D37" t="n">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>489.08</v>
       </c>
       <c r="F37" t="n">
-        <v>489.08</v>
+        <v>7.4178</v>
       </c>
       <c r="G37" t="n">
-        <v>7.4178</v>
-      </c>
-      <c r="H37" t="n">
         <v>3.5424</v>
       </c>
     </row>
@@ -1349,24 +1236,21 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C38" t="n">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="D38" t="n">
-        <v>844</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>52.61199999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>52.61199999999999</v>
+        <v>7.5543</v>
       </c>
       <c r="G38" t="n">
-        <v>7.5543</v>
-      </c>
-      <c r="H38" t="n">
         <v>3.6155</v>
       </c>
     </row>
@@ -1375,24 +1259,21 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C39" t="n">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="D39" t="n">
-        <v>844</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>144.86</v>
       </c>
       <c r="F39" t="n">
-        <v>144.86</v>
+        <v>7.2311</v>
       </c>
       <c r="G39" t="n">
-        <v>7.2311</v>
-      </c>
-      <c r="H39" t="n">
         <v>4.0397</v>
       </c>
     </row>
@@ -1401,24 +1282,21 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C40" t="n">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="D40" t="n">
-        <v>844</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>283.7</v>
       </c>
       <c r="F40" t="n">
-        <v>283.7</v>
+        <v>7.3192</v>
       </c>
       <c r="G40" t="n">
-        <v>7.3192</v>
-      </c>
-      <c r="H40" t="n">
         <v>4.3602</v>
       </c>
     </row>
@@ -1427,24 +1305,21 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C41" t="n">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="D41" t="n">
-        <v>844</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>322.56</v>
       </c>
       <c r="F41" t="n">
-        <v>322.56</v>
+        <v>11.857</v>
       </c>
       <c r="G41" t="n">
-        <v>11.857</v>
-      </c>
-      <c r="H41" t="n">
         <v>4.4629</v>
       </c>
     </row>
@@ -1453,24 +1328,21 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C42" t="n">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="D42" t="n">
-        <v>844</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>468.52</v>
       </c>
       <c r="F42" t="n">
-        <v>468.52</v>
+        <v>7.421</v>
       </c>
       <c r="G42" t="n">
-        <v>7.421</v>
-      </c>
-      <c r="H42" t="n">
         <v>4.4686</v>
       </c>
     </row>
@@ -1479,24 +1351,21 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="C43" t="n">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="D43" t="n">
-        <v>844</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>489.24</v>
       </c>
       <c r="F43" t="n">
-        <v>489.24</v>
+        <v>7.4193</v>
       </c>
       <c r="G43" t="n">
-        <v>7.4193</v>
-      </c>
-      <c r="H43" t="n">
         <v>3.7261</v>
       </c>
     </row>
@@ -1505,24 +1374,21 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D44" t="n">
-        <v>548</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>52.65600000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>52.65600000000001</v>
+        <v>7.5574</v>
       </c>
       <c r="G44" t="n">
-        <v>7.5574</v>
-      </c>
-      <c r="H44" t="n">
         <v>4.5904</v>
       </c>
     </row>
@@ -1531,24 +1397,21 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C45" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D45" t="n">
-        <v>548</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>144.97</v>
       </c>
       <c r="F45" t="n">
-        <v>144.97</v>
+        <v>7.2379</v>
       </c>
       <c r="G45" t="n">
-        <v>7.2379</v>
-      </c>
-      <c r="H45" t="n">
         <v>3.642</v>
       </c>
     </row>
@@ -1557,24 +1420,21 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C46" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D46" t="n">
-        <v>548</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>283.87</v>
       </c>
       <c r="F46" t="n">
-        <v>283.87</v>
+        <v>7.3165</v>
       </c>
       <c r="G46" t="n">
-        <v>7.3165</v>
-      </c>
-      <c r="H46" t="n">
         <v>4.4827</v>
       </c>
     </row>
@@ -1583,24 +1443,21 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C47" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D47" t="n">
-        <v>548</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>322.86</v>
       </c>
       <c r="F47" t="n">
-        <v>322.86</v>
+        <v>11.863</v>
       </c>
       <c r="G47" t="n">
-        <v>11.863</v>
-      </c>
-      <c r="H47" t="n">
         <v>5.2599</v>
       </c>
     </row>
@@ -1609,24 +1466,21 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C48" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D48" t="n">
-        <v>548</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>469.22</v>
       </c>
       <c r="F48" t="n">
-        <v>469.22</v>
+        <v>7.4134</v>
       </c>
       <c r="G48" t="n">
-        <v>7.4134</v>
-      </c>
-      <c r="H48" t="n">
         <v>4.06</v>
       </c>
     </row>
@@ -1635,24 +1489,21 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C49" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D49" t="n">
-        <v>548</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>489.22</v>
       </c>
       <c r="F49" t="n">
-        <v>489.22</v>
+        <v>7.4209</v>
       </c>
       <c r="G49" t="n">
-        <v>7.4209</v>
-      </c>
-      <c r="H49" t="n">
         <v>4.6349</v>
       </c>
     </row>
@@ -1661,24 +1512,21 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C50" t="n">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="D50" t="n">
-        <v>699</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>52.68899999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>52.68899999999999</v>
+        <v>7.5577</v>
       </c>
       <c r="G50" t="n">
-        <v>7.5577</v>
-      </c>
-      <c r="H50" t="n">
         <v>4.2837</v>
       </c>
     </row>
@@ -1687,24 +1535,21 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C51" t="n">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="D51" t="n">
-        <v>699</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>145.17</v>
       </c>
       <c r="F51" t="n">
-        <v>145.17</v>
+        <v>7.2375</v>
       </c>
       <c r="G51" t="n">
-        <v>7.2375</v>
-      </c>
-      <c r="H51" t="n">
         <v>4.3796</v>
       </c>
     </row>
@@ -1713,24 +1558,21 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C52" t="n">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="D52" t="n">
-        <v>699</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>284.24</v>
       </c>
       <c r="F52" t="n">
-        <v>284.24</v>
+        <v>7.3235</v>
       </c>
       <c r="G52" t="n">
-        <v>7.3235</v>
-      </c>
-      <c r="H52" t="n">
         <v>4.0659</v>
       </c>
     </row>
@@ -1739,24 +1581,21 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C53" t="n">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="D53" t="n">
-        <v>699</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>322.87</v>
       </c>
       <c r="F53" t="n">
-        <v>322.87</v>
+        <v>11.863</v>
       </c>
       <c r="G53" t="n">
-        <v>11.863</v>
-      </c>
-      <c r="H53" t="n">
         <v>5.0375</v>
       </c>
     </row>
@@ -1765,24 +1604,21 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C54" t="n">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="D54" t="n">
-        <v>699</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>469.62</v>
       </c>
       <c r="F54" t="n">
-        <v>469.62</v>
+        <v>7.4095</v>
       </c>
       <c r="G54" t="n">
-        <v>7.4095</v>
-      </c>
-      <c r="H54" t="n">
         <v>4.0907</v>
       </c>
     </row>
@@ -1791,24 +1627,21 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C55" t="n">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="D55" t="n">
-        <v>699</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>489.27</v>
       </c>
       <c r="F55" t="n">
-        <v>489.27</v>
+        <v>7.4196</v>
       </c>
       <c r="G55" t="n">
-        <v>7.4196</v>
-      </c>
-      <c r="H55" t="n">
         <v>4.3538</v>
       </c>
     </row>
@@ -1817,24 +1650,21 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="C56" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D56" t="n">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>52.682</v>
       </c>
       <c r="F56" t="n">
-        <v>52.682</v>
+        <v>7.5582</v>
       </c>
       <c r="G56" t="n">
-        <v>7.5582</v>
-      </c>
-      <c r="H56" t="n">
         <v>4.3451</v>
       </c>
     </row>
@@ -1843,24 +1673,21 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="C57" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D57" t="n">
-        <v>618</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>145.14</v>
       </c>
       <c r="F57" t="n">
-        <v>145.14</v>
+        <v>7.2344</v>
       </c>
       <c r="G57" t="n">
-        <v>7.2344</v>
-      </c>
-      <c r="H57" t="n">
         <v>4.1548</v>
       </c>
     </row>
@@ -1869,24 +1696,21 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="C58" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>618</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>284.12</v>
       </c>
       <c r="F58" t="n">
-        <v>284.12</v>
+        <v>7.3268</v>
       </c>
       <c r="G58" t="n">
-        <v>7.3268</v>
-      </c>
-      <c r="H58" t="n">
         <v>3.8913</v>
       </c>
     </row>
@@ -1895,24 +1719,21 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="C59" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D59" t="n">
-        <v>618</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>322.86</v>
       </c>
       <c r="F59" t="n">
-        <v>322.86</v>
+        <v>11.865</v>
       </c>
       <c r="G59" t="n">
-        <v>11.865</v>
-      </c>
-      <c r="H59" t="n">
         <v>5.0663</v>
       </c>
     </row>
@@ -1921,24 +1742,21 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="C60" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D60" t="n">
-        <v>618</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>469.39</v>
       </c>
       <c r="F60" t="n">
-        <v>469.39</v>
+        <v>7.4052</v>
       </c>
       <c r="G60" t="n">
-        <v>7.4052</v>
-      </c>
-      <c r="H60" t="n">
         <v>4.5229</v>
       </c>
     </row>
@@ -1947,24 +1765,21 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="C61" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D61" t="n">
-        <v>618</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>489.25</v>
       </c>
       <c r="F61" t="n">
-        <v>489.25</v>
+        <v>7.42</v>
       </c>
       <c r="G61" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H61" t="n">
         <v>4.4074</v>
       </c>
     </row>
@@ -1973,24 +1788,21 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="D62" t="n">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>52.45</v>
       </c>
       <c r="F62" t="n">
-        <v>52.45</v>
+        <v>7.5489</v>
       </c>
       <c r="G62" t="n">
-        <v>7.5489</v>
-      </c>
-      <c r="H62" t="n">
         <v>3.8615</v>
       </c>
     </row>
@@ -1999,24 +1811,21 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="D63" t="n">
-        <v>337</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>144.26</v>
       </c>
       <c r="F63" t="n">
-        <v>144.26</v>
+        <v>7.2355</v>
       </c>
       <c r="G63" t="n">
-        <v>7.2355</v>
-      </c>
-      <c r="H63" t="n">
         <v>3.9937</v>
       </c>
     </row>
@@ -2025,24 +1834,21 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="D64" t="n">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>282.98</v>
       </c>
       <c r="F64" t="n">
-        <v>282.98</v>
+        <v>7.3164</v>
       </c>
       <c r="G64" t="n">
-        <v>7.3164</v>
-      </c>
-      <c r="H64" t="n">
         <v>3.7529</v>
       </c>
     </row>
@@ -2051,24 +1857,21 @@
         <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="D65" t="n">
-        <v>337</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>322.11</v>
       </c>
       <c r="F65" t="n">
-        <v>322.11</v>
+        <v>11.856</v>
       </c>
       <c r="G65" t="n">
-        <v>11.856</v>
-      </c>
-      <c r="H65" t="n">
         <v>4.6042</v>
       </c>
     </row>
@@ -2077,24 +1880,21 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="D66" t="n">
-        <v>337</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>467.09</v>
       </c>
       <c r="F66" t="n">
-        <v>467.09</v>
+        <v>7.4388</v>
       </c>
       <c r="G66" t="n">
-        <v>7.4388</v>
-      </c>
-      <c r="H66" t="n">
         <v>4.0616</v>
       </c>
     </row>
@@ -2103,24 +1903,21 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="D67" t="n">
-        <v>337</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>488.59</v>
       </c>
       <c r="F67" t="n">
-        <v>488.59</v>
+        <v>7.417999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>7.417999999999999</v>
-      </c>
-      <c r="H67" t="n">
         <v>3.9438</v>
       </c>
     </row>
@@ -2129,24 +1926,21 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="D68" t="n">
-        <v>707</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>52.448</v>
       </c>
       <c r="F68" t="n">
-        <v>52.448</v>
+        <v>7.5503</v>
       </c>
       <c r="G68" t="n">
-        <v>7.5503</v>
-      </c>
-      <c r="H68" t="n">
         <v>3.5772</v>
       </c>
     </row>
@@ -2155,24 +1949,21 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C69" t="n">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="D69" t="n">
-        <v>707</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>144.44</v>
       </c>
       <c r="F69" t="n">
-        <v>144.44</v>
+        <v>7.2557</v>
       </c>
       <c r="G69" t="n">
-        <v>7.2557</v>
-      </c>
-      <c r="H69" t="n">
         <v>3.8659</v>
       </c>
     </row>
@@ -2181,24 +1972,21 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C70" t="n">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="D70" t="n">
-        <v>707</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>283.31</v>
       </c>
       <c r="F70" t="n">
-        <v>283.31</v>
+        <v>7.3232</v>
       </c>
       <c r="G70" t="n">
-        <v>7.3232</v>
-      </c>
-      <c r="H70" t="n">
         <v>3.8991</v>
       </c>
     </row>
@@ -2207,24 +1995,21 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C71" t="n">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="D71" t="n">
-        <v>707</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>322.04</v>
       </c>
       <c r="F71" t="n">
-        <v>322.04</v>
+        <v>11.854</v>
       </c>
       <c r="G71" t="n">
-        <v>11.854</v>
-      </c>
-      <c r="H71" t="n">
         <v>4.3609</v>
       </c>
     </row>
@@ -2233,24 +2018,21 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C72" t="n">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="D72" t="n">
-        <v>707</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>468.61</v>
       </c>
       <c r="F72" t="n">
-        <v>468.61</v>
+        <v>7.4013</v>
       </c>
       <c r="G72" t="n">
-        <v>7.4013</v>
-      </c>
-      <c r="H72" t="n">
         <v>3.8914</v>
       </c>
     </row>
@@ -2259,24 +2041,21 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C73" t="n">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="D73" t="n">
-        <v>707</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>488.7</v>
       </c>
       <c r="F73" t="n">
-        <v>488.7</v>
+        <v>7.4182</v>
       </c>
       <c r="G73" t="n">
-        <v>7.4182</v>
-      </c>
-      <c r="H73" t="n">
         <v>3.6806</v>
       </c>
     </row>
@@ -2285,24 +2064,21 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C74" t="n">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="D74" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>52.631</v>
       </c>
       <c r="F74" t="n">
-        <v>52.631</v>
+        <v>7.5641</v>
       </c>
       <c r="G74" t="n">
-        <v>7.5641</v>
-      </c>
-      <c r="H74" t="n">
         <v>4.0266</v>
       </c>
     </row>
@@ -2311,24 +2087,21 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C75" t="n">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="D75" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>144.83</v>
       </c>
       <c r="F75" t="n">
-        <v>144.83</v>
+        <v>7.2425</v>
       </c>
       <c r="G75" t="n">
-        <v>7.2425</v>
-      </c>
-      <c r="H75" t="n">
         <v>4.1469</v>
       </c>
     </row>
@@ -2337,24 +2110,21 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C76" t="n">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="D76" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>283.21</v>
       </c>
       <c r="F76" t="n">
-        <v>283.21</v>
+        <v>7.3244</v>
       </c>
       <c r="G76" t="n">
-        <v>7.3244</v>
-      </c>
-      <c r="H76" t="n">
         <v>4.4724</v>
       </c>
     </row>
@@ -2363,24 +2133,21 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C77" t="n">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="D77" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>322.81</v>
       </c>
       <c r="F77" t="n">
-        <v>322.81</v>
+        <v>11.865</v>
       </c>
       <c r="G77" t="n">
-        <v>11.865</v>
-      </c>
-      <c r="H77" t="n">
         <v>4.8258</v>
       </c>
     </row>
@@ -2389,24 +2156,21 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C78" t="n">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="D78" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>469.32</v>
       </c>
       <c r="F78" t="n">
-        <v>469.32</v>
+        <v>7.4013</v>
       </c>
       <c r="G78" t="n">
-        <v>7.4013</v>
-      </c>
-      <c r="H78" t="n">
         <v>3.9401</v>
       </c>
     </row>
@@ -2415,24 +2179,21 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C79" t="n">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="D79" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>489.16</v>
       </c>
       <c r="F79" t="n">
-        <v>489.16</v>
+        <v>7.4262</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4262</v>
-      </c>
-      <c r="H79" t="n">
         <v>4.1125</v>
       </c>
     </row>
@@ -2441,24 +2202,21 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C80" t="n">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="D80" t="n">
-        <v>684</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>53.082</v>
       </c>
       <c r="F80" t="n">
-        <v>53.082</v>
+        <v>7.5635</v>
       </c>
       <c r="G80" t="n">
-        <v>7.5635</v>
-      </c>
-      <c r="H80" t="n">
         <v>4.5972</v>
       </c>
     </row>
@@ -2467,24 +2225,21 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C81" t="n">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="D81" t="n">
-        <v>684</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>146.74</v>
       </c>
       <c r="F81" t="n">
-        <v>146.74</v>
+        <v>7.2485</v>
       </c>
       <c r="G81" t="n">
-        <v>7.2485</v>
-      </c>
-      <c r="H81" t="n">
         <v>5.0904</v>
       </c>
     </row>
@@ -2493,24 +2248,21 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C82" t="n">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="D82" t="n">
-        <v>684</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>289.37</v>
       </c>
       <c r="F82" t="n">
-        <v>289.37</v>
+        <v>7.3612</v>
       </c>
       <c r="G82" t="n">
-        <v>7.3612</v>
-      </c>
-      <c r="H82" t="n">
         <v>3.2454</v>
       </c>
     </row>
@@ -2519,24 +2271,21 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C83" t="n">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="D83" t="n">
-        <v>684</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>331.33</v>
       </c>
       <c r="F83" t="n">
-        <v>331.33</v>
+        <v>12.021</v>
       </c>
       <c r="G83" t="n">
-        <v>12.021</v>
-      </c>
-      <c r="H83" t="n">
         <v>5.3596</v>
       </c>
     </row>
@@ -2545,24 +2294,21 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C84" t="n">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="D84" t="n">
-        <v>684</v>
+        <v>5</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>481.73</v>
       </c>
       <c r="F84" t="n">
-        <v>481.73</v>
+        <v>7.3899</v>
       </c>
       <c r="G84" t="n">
-        <v>7.3899</v>
-      </c>
-      <c r="H84" t="n">
         <v>4.1562</v>
       </c>
     </row>
@@ -2571,24 +2317,21 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C85" t="n">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="D85" t="n">
-        <v>684</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>490.03</v>
       </c>
       <c r="F85" t="n">
-        <v>490.03</v>
+        <v>7.4224</v>
       </c>
       <c r="G85" t="n">
-        <v>7.4224</v>
-      </c>
-      <c r="H85" t="n">
         <v>4.6492</v>
       </c>
     </row>
@@ -2597,24 +2340,21 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="C86" t="n">
-        <v>389</v>
+        <v>834</v>
       </c>
       <c r="D86" t="n">
-        <v>834</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>52.566</v>
       </c>
       <c r="F86" t="n">
-        <v>52.566</v>
+        <v>7.5569</v>
       </c>
       <c r="G86" t="n">
-        <v>7.5569</v>
-      </c>
-      <c r="H86" t="n">
         <v>3.8639</v>
       </c>
     </row>
@@ -2623,24 +2363,21 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="C87" t="n">
-        <v>389</v>
+        <v>834</v>
       </c>
       <c r="D87" t="n">
-        <v>834</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>144.75</v>
       </c>
       <c r="F87" t="n">
-        <v>144.75</v>
+        <v>7.241000000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>7.241000000000001</v>
-      </c>
-      <c r="H87" t="n">
         <v>4.0965</v>
       </c>
     </row>
@@ -2649,24 +2386,21 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="C88" t="n">
-        <v>389</v>
+        <v>834</v>
       </c>
       <c r="D88" t="n">
-        <v>834</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>283.74</v>
       </c>
       <c r="F88" t="n">
-        <v>283.74</v>
+        <v>7.3233</v>
       </c>
       <c r="G88" t="n">
-        <v>7.3233</v>
-      </c>
-      <c r="H88" t="n">
         <v>4.1115</v>
       </c>
     </row>
@@ -2675,24 +2409,21 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="C89" t="n">
-        <v>389</v>
+        <v>834</v>
       </c>
       <c r="D89" t="n">
-        <v>834</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>322.49</v>
       </c>
       <c r="F89" t="n">
-        <v>322.49</v>
+        <v>11.866</v>
       </c>
       <c r="G89" t="n">
-        <v>11.866</v>
-      </c>
-      <c r="H89" t="n">
         <v>4.6628</v>
       </c>
     </row>
@@ -2701,24 +2432,21 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="C90" t="n">
-        <v>389</v>
+        <v>834</v>
       </c>
       <c r="D90" t="n">
-        <v>834</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>467.02</v>
       </c>
       <c r="F90" t="n">
-        <v>467.02</v>
+        <v>7.4393</v>
       </c>
       <c r="G90" t="n">
-        <v>7.4393</v>
-      </c>
-      <c r="H90" t="n">
         <v>4.4551</v>
       </c>
     </row>
@@ -2727,24 +2455,21 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="C91" t="n">
-        <v>389</v>
+        <v>834</v>
       </c>
       <c r="D91" t="n">
-        <v>834</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>489.08</v>
       </c>
       <c r="F91" t="n">
-        <v>489.08</v>
+        <v>7.421</v>
       </c>
       <c r="G91" t="n">
-        <v>7.421</v>
-      </c>
-      <c r="H91" t="n">
         <v>3.9575</v>
       </c>
     </row>
@@ -2753,24 +2478,21 @@
         <v>3</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C92" t="n">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="D92" t="n">
-        <v>844</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>52.505</v>
       </c>
       <c r="F92" t="n">
-        <v>52.505</v>
+        <v>7.5582</v>
       </c>
       <c r="G92" t="n">
-        <v>7.5582</v>
-      </c>
-      <c r="H92" t="n">
         <v>3.3563</v>
       </c>
     </row>
@@ -2779,24 +2501,21 @@
         <v>3</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C93" t="n">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="D93" t="n">
-        <v>844</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>144.77</v>
       </c>
       <c r="F93" t="n">
-        <v>144.77</v>
+        <v>7.2298</v>
       </c>
       <c r="G93" t="n">
-        <v>7.2298</v>
-      </c>
-      <c r="H93" t="n">
         <v>3.9324</v>
       </c>
     </row>
@@ -2805,24 +2524,21 @@
         <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C94" t="n">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="D94" t="n">
-        <v>844</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>282.54</v>
       </c>
       <c r="F94" t="n">
-        <v>282.54</v>
+        <v>7.3367</v>
       </c>
       <c r="G94" t="n">
-        <v>7.3367</v>
-      </c>
-      <c r="H94" t="n">
         <v>4.4186</v>
       </c>
     </row>
@@ -2831,24 +2547,21 @@
         <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C95" t="n">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="D95" t="n">
-        <v>844</v>
+        <v>4</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>321.11</v>
       </c>
       <c r="F95" t="n">
-        <v>321.11</v>
+        <v>11.844</v>
       </c>
       <c r="G95" t="n">
-        <v>11.844</v>
-      </c>
-      <c r="H95" t="n">
         <v>4.2411</v>
       </c>
     </row>
@@ -2857,24 +2570,21 @@
         <v>3</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C96" t="n">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="D96" t="n">
-        <v>844</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>465.09</v>
       </c>
       <c r="F96" t="n">
-        <v>465.09</v>
+        <v>7.5108</v>
       </c>
       <c r="G96" t="n">
-        <v>7.5108</v>
-      </c>
-      <c r="H96" t="n">
         <v>4.6962</v>
       </c>
     </row>
@@ -2883,24 +2593,21 @@
         <v>3</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C97" t="n">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="D97" t="n">
-        <v>844</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>488.73</v>
       </c>
       <c r="F97" t="n">
-        <v>488.73</v>
+        <v>7.4251</v>
       </c>
       <c r="G97" t="n">
-        <v>7.4251</v>
-      </c>
-      <c r="H97" t="n">
         <v>3.4867</v>
       </c>
     </row>
@@ -2909,24 +2616,21 @@
         <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C98" t="n">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="D98" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>52.485</v>
       </c>
       <c r="F98" t="n">
-        <v>52.485</v>
+        <v>7.5805</v>
       </c>
       <c r="G98" t="n">
-        <v>7.5805</v>
-      </c>
-      <c r="H98" t="n">
         <v>3.9452</v>
       </c>
     </row>
@@ -2935,24 +2639,21 @@
         <v>3</v>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C99" t="n">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="D99" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>145.03</v>
       </c>
       <c r="F99" t="n">
-        <v>145.03</v>
+        <v>7.2413</v>
       </c>
       <c r="G99" t="n">
-        <v>7.2413</v>
-      </c>
-      <c r="H99" t="n">
         <v>3.8219</v>
       </c>
     </row>
@@ -2961,24 +2662,21 @@
         <v>3</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C100" t="n">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="D100" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>282.7</v>
       </c>
       <c r="F100" t="n">
-        <v>282.7</v>
+        <v>7.3635</v>
       </c>
       <c r="G100" t="n">
-        <v>7.3635</v>
-      </c>
-      <c r="H100" t="n">
         <v>4.475</v>
       </c>
     </row>
@@ -2987,24 +2685,21 @@
         <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C101" t="n">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="D101" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>322.31</v>
       </c>
       <c r="F101" t="n">
-        <v>322.31</v>
+        <v>11.862</v>
       </c>
       <c r="G101" t="n">
-        <v>11.862</v>
-      </c>
-      <c r="H101" t="n">
         <v>4.7367</v>
       </c>
     </row>
@@ -3013,24 +2708,21 @@
         <v>3</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C102" t="n">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="D102" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>467.08</v>
       </c>
       <c r="F102" t="n">
-        <v>467.08</v>
+        <v>7.5129</v>
       </c>
       <c r="G102" t="n">
-        <v>7.5129</v>
-      </c>
-      <c r="H102" t="n">
         <v>4.12</v>
       </c>
     </row>
@@ -3039,24 +2731,21 @@
         <v>3</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C103" t="n">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="D103" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>488.74</v>
       </c>
       <c r="F103" t="n">
-        <v>488.74</v>
+        <v>7.4415</v>
       </c>
       <c r="G103" t="n">
-        <v>7.4415</v>
-      </c>
-      <c r="H103" t="n">
         <v>4.0361</v>
       </c>
     </row>
@@ -3065,24 +2754,21 @@
         <v>3</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C104" t="n">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="D104" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>52.53100000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>52.53100000000001</v>
+        <v>7.5678</v>
       </c>
       <c r="G104" t="n">
-        <v>7.5678</v>
-      </c>
-      <c r="H104" t="n">
         <v>4.0889</v>
       </c>
     </row>
@@ -3091,24 +2777,21 @@
         <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C105" t="n">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="D105" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>144.81</v>
       </c>
       <c r="F105" t="n">
-        <v>144.81</v>
+        <v>7.2553</v>
       </c>
       <c r="G105" t="n">
-        <v>7.2553</v>
-      </c>
-      <c r="H105" t="n">
         <v>4.0601</v>
       </c>
     </row>
@@ -3117,24 +2800,21 @@
         <v>3</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C106" t="n">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="D106" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>282.6</v>
       </c>
       <c r="F106" t="n">
-        <v>282.6</v>
+        <v>7.3426</v>
       </c>
       <c r="G106" t="n">
-        <v>7.3426</v>
-      </c>
-      <c r="H106" t="n">
         <v>4.399</v>
       </c>
     </row>
@@ -3143,24 +2823,21 @@
         <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C107" t="n">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="D107" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>322.31</v>
       </c>
       <c r="F107" t="n">
-        <v>322.31</v>
+        <v>11.869</v>
       </c>
       <c r="G107" t="n">
-        <v>11.869</v>
-      </c>
-      <c r="H107" t="n">
         <v>4.8624</v>
       </c>
     </row>
@@ -3169,24 +2846,21 @@
         <v>3</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C108" t="n">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="D108" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>466.29</v>
       </c>
       <c r="F108" t="n">
-        <v>466.29</v>
+        <v>7.4929</v>
       </c>
       <c r="G108" t="n">
-        <v>7.4929</v>
-      </c>
-      <c r="H108" t="n">
         <v>4.4641</v>
       </c>
     </row>
@@ -3195,24 +2869,21 @@
         <v>3</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C109" t="n">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="D109" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>488.74</v>
       </c>
       <c r="F109" t="n">
-        <v>488.74</v>
+        <v>7.4293</v>
       </c>
       <c r="G109" t="n">
-        <v>7.4293</v>
-      </c>
-      <c r="H109" t="n">
         <v>4.1707</v>
       </c>
     </row>
@@ -3221,24 +2892,21 @@
         <v>3</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C110" t="n">
-        <v>369</v>
+        <v>942</v>
       </c>
       <c r="D110" t="n">
-        <v>942</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>52.801</v>
       </c>
       <c r="F110" t="n">
-        <v>52.801</v>
+        <v>7.5577</v>
       </c>
       <c r="G110" t="n">
-        <v>7.5577</v>
-      </c>
-      <c r="H110" t="n">
         <v>3.609</v>
       </c>
     </row>
@@ -3247,24 +2915,21 @@
         <v>3</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C111" t="n">
-        <v>369</v>
+        <v>942</v>
       </c>
       <c r="D111" t="n">
-        <v>942</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>146.45</v>
       </c>
       <c r="F111" t="n">
-        <v>146.45</v>
+        <v>7.2288</v>
       </c>
       <c r="G111" t="n">
-        <v>7.2288</v>
-      </c>
-      <c r="H111" t="n">
         <v>3.7786</v>
       </c>
     </row>
@@ -3273,24 +2938,21 @@
         <v>3</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C112" t="n">
-        <v>369</v>
+        <v>942</v>
       </c>
       <c r="D112" t="n">
-        <v>942</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>289.47</v>
       </c>
       <c r="F112" t="n">
-        <v>289.47</v>
+        <v>7.3208</v>
       </c>
       <c r="G112" t="n">
-        <v>7.3208</v>
-      </c>
-      <c r="H112" t="n">
         <v>2.9539</v>
       </c>
     </row>
@@ -3299,24 +2961,21 @@
         <v>3</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C113" t="n">
-        <v>369</v>
+        <v>942</v>
       </c>
       <c r="D113" t="n">
-        <v>942</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>328.69</v>
       </c>
       <c r="F113" t="n">
-        <v>328.69</v>
+        <v>11.939</v>
       </c>
       <c r="G113" t="n">
-        <v>11.939</v>
-      </c>
-      <c r="H113" t="n">
         <v>4.2758</v>
       </c>
     </row>
@@ -3325,24 +2984,21 @@
         <v>3</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C114" t="n">
-        <v>369</v>
+        <v>942</v>
       </c>
       <c r="D114" t="n">
-        <v>942</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>481.24</v>
       </c>
       <c r="F114" t="n">
-        <v>481.24</v>
+        <v>7.3689</v>
       </c>
       <c r="G114" t="n">
-        <v>7.3689</v>
-      </c>
-      <c r="H114" t="n">
         <v>4.1464</v>
       </c>
     </row>
@@ -3351,24 +3007,21 @@
         <v>3</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C115" t="n">
-        <v>369</v>
+        <v>942</v>
       </c>
       <c r="D115" t="n">
-        <v>942</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>488.45</v>
       </c>
       <c r="F115" t="n">
-        <v>488.45</v>
+        <v>7.4196</v>
       </c>
       <c r="G115" t="n">
-        <v>7.4196</v>
-      </c>
-      <c r="H115" t="n">
         <v>3.6991</v>
       </c>
     </row>
@@ -3377,24 +3030,21 @@
         <v>3</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="C116" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="D116" t="n">
-        <v>826</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>52.46899999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>52.46899999999999</v>
+        <v>7.5672</v>
       </c>
       <c r="G116" t="n">
-        <v>7.5672</v>
-      </c>
-      <c r="H116" t="n">
         <v>3.8239</v>
       </c>
     </row>
@@ -3403,24 +3053,21 @@
         <v>3</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="C117" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="D117" t="n">
-        <v>826</v>
+        <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>144.73</v>
       </c>
       <c r="F117" t="n">
-        <v>144.73</v>
+        <v>7.2492</v>
       </c>
       <c r="G117" t="n">
-        <v>7.2492</v>
-      </c>
-      <c r="H117" t="n">
         <v>4.0808</v>
       </c>
     </row>
@@ -3429,24 +3076,21 @@
         <v>3</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="C118" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="D118" t="n">
-        <v>826</v>
+        <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>282.97</v>
       </c>
       <c r="F118" t="n">
-        <v>282.97</v>
+        <v>7.3851</v>
       </c>
       <c r="G118" t="n">
-        <v>7.3851</v>
-      </c>
-      <c r="H118" t="n">
         <v>4.3572</v>
       </c>
     </row>
@@ -3455,24 +3099,21 @@
         <v>3</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="C119" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="D119" t="n">
-        <v>826</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>322.4</v>
       </c>
       <c r="F119" t="n">
-        <v>322.4</v>
+        <v>11.871</v>
       </c>
       <c r="G119" t="n">
-        <v>11.871</v>
-      </c>
-      <c r="H119" t="n">
         <v>4.6425</v>
       </c>
     </row>
@@ -3481,24 +3122,21 @@
         <v>3</v>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="C120" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="D120" t="n">
-        <v>826</v>
+        <v>5</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>466.3</v>
       </c>
       <c r="F120" t="n">
-        <v>466.3</v>
+        <v>7.4319</v>
       </c>
       <c r="G120" t="n">
-        <v>7.4319</v>
-      </c>
-      <c r="H120" t="n">
         <v>4.4995</v>
       </c>
     </row>
@@ -3507,24 +3145,21 @@
         <v>3</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="C121" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="D121" t="n">
-        <v>826</v>
+        <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>488.73</v>
       </c>
       <c r="F121" t="n">
-        <v>488.73</v>
+        <v>7.4266</v>
       </c>
       <c r="G121" t="n">
-        <v>7.4266</v>
-      </c>
-      <c r="H121" t="n">
         <v>3.9227</v>
       </c>
     </row>
@@ -3533,24 +3168,21 @@
         <v>4</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C122" t="n">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D122" t="n">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>52.09399999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>52.09399999999999</v>
+        <v>7.547000000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>7.547000000000001</v>
-      </c>
-      <c r="H122" t="n">
         <v>3.4962</v>
       </c>
     </row>
@@ -3559,24 +3191,21 @@
         <v>4</v>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C123" t="n">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D123" t="n">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>143.67</v>
       </c>
       <c r="F123" t="n">
-        <v>143.67</v>
+        <v>7.2521</v>
       </c>
       <c r="G123" t="n">
-        <v>7.2521</v>
-      </c>
-      <c r="H123" t="n">
         <v>3.837</v>
       </c>
     </row>
@@ -3585,24 +3214,21 @@
         <v>4</v>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C124" t="n">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D124" t="n">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>280.92</v>
       </c>
       <c r="F124" t="n">
-        <v>280.92</v>
+        <v>7.5101</v>
       </c>
       <c r="G124" t="n">
-        <v>7.5101</v>
-      </c>
-      <c r="H124" t="n">
         <v>4.037</v>
       </c>
     </row>
@@ -3611,24 +3237,21 @@
         <v>4</v>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C125" t="n">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D125" t="n">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>320.35</v>
       </c>
       <c r="F125" t="n">
-        <v>320.35</v>
+        <v>11.838</v>
       </c>
       <c r="G125" t="n">
-        <v>11.838</v>
-      </c>
-      <c r="H125" t="n">
         <v>4.296</v>
       </c>
     </row>
@@ -3637,24 +3260,21 @@
         <v>4</v>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C126" t="n">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D126" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>465.91</v>
       </c>
       <c r="F126" t="n">
-        <v>465.91</v>
+        <v>7.4346</v>
       </c>
       <c r="G126" t="n">
-        <v>7.4346</v>
-      </c>
-      <c r="H126" t="n">
         <v>4.0871</v>
       </c>
     </row>
@@ -3663,24 +3283,21 @@
         <v>4</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C127" t="n">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D127" t="n">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>486.78</v>
       </c>
       <c r="F127" t="n">
-        <v>486.78</v>
+        <v>7.4211</v>
       </c>
       <c r="G127" t="n">
-        <v>7.4211</v>
-      </c>
-      <c r="H127" t="n">
         <v>3.6043</v>
       </c>
     </row>
@@ -3689,24 +3306,21 @@
         <v>4</v>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C128" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D128" t="n">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>52.284</v>
       </c>
       <c r="F128" t="n">
-        <v>52.284</v>
+        <v>7.5536</v>
       </c>
       <c r="G128" t="n">
-        <v>7.5536</v>
-      </c>
-      <c r="H128" t="n">
         <v>3.3995</v>
       </c>
     </row>
@@ -3715,24 +3329,21 @@
         <v>4</v>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C129" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D129" t="n">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>144.83</v>
       </c>
       <c r="F129" t="n">
-        <v>144.83</v>
+        <v>7.2386</v>
       </c>
       <c r="G129" t="n">
-        <v>7.2386</v>
-      </c>
-      <c r="H129" t="n">
         <v>3.7064</v>
       </c>
     </row>
@@ -3741,24 +3352,21 @@
         <v>4</v>
       </c>
       <c r="B130" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C130" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D130" t="n">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>283.71</v>
       </c>
       <c r="F130" t="n">
-        <v>283.71</v>
+        <v>7.3496</v>
       </c>
       <c r="G130" t="n">
-        <v>7.3496</v>
-      </c>
-      <c r="H130" t="n">
         <v>4.093999999999999</v>
       </c>
     </row>
@@ -3767,24 +3375,21 @@
         <v>4</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C131" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D131" t="n">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>319.94</v>
       </c>
       <c r="F131" t="n">
-        <v>319.94</v>
+        <v>11.831</v>
       </c>
       <c r="G131" t="n">
-        <v>11.831</v>
-      </c>
-      <c r="H131" t="n">
         <v>4.2401</v>
       </c>
     </row>
@@ -3793,24 +3398,21 @@
         <v>4</v>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C132" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D132" t="n">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>464.89</v>
       </c>
       <c r="F132" t="n">
-        <v>464.89</v>
+        <v>7.6324</v>
       </c>
       <c r="G132" t="n">
-        <v>7.6324</v>
-      </c>
-      <c r="H132" t="n">
         <v>4.3974</v>
       </c>
     </row>
@@ -3819,24 +3421,21 @@
         <v>4</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C133" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D133" t="n">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>487.14</v>
       </c>
       <c r="F133" t="n">
-        <v>487.14</v>
+        <v>7.4278</v>
       </c>
       <c r="G133" t="n">
-        <v>7.4278</v>
-      </c>
-      <c r="H133" t="n">
         <v>3.5256</v>
       </c>
     </row>
@@ -3845,24 +3444,21 @@
         <v>4</v>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="C134" t="n">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="D134" t="n">
-        <v>439</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>52.308</v>
       </c>
       <c r="F134" t="n">
-        <v>52.308</v>
+        <v>7.5877</v>
       </c>
       <c r="G134" t="n">
-        <v>7.5877</v>
-      </c>
-      <c r="H134" t="n">
         <v>4.0196</v>
       </c>
     </row>
@@ -3871,24 +3467,21 @@
         <v>4</v>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="C135" t="n">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="D135" t="n">
-        <v>439</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>144.33</v>
       </c>
       <c r="F135" t="n">
-        <v>144.33</v>
+        <v>7.2351</v>
       </c>
       <c r="G135" t="n">
-        <v>7.2351</v>
-      </c>
-      <c r="H135" t="n">
         <v>4.0551</v>
       </c>
     </row>
@@ -3897,24 +3490,21 @@
         <v>4</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="C136" t="n">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="D136" t="n">
-        <v>439</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>279.45</v>
       </c>
       <c r="F136" t="n">
-        <v>279.45</v>
+        <v>7.5984</v>
       </c>
       <c r="G136" t="n">
-        <v>7.5984</v>
-      </c>
-      <c r="H136" t="n">
         <v>4.2904</v>
       </c>
     </row>
@@ -3923,24 +3513,21 @@
         <v>4</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="C137" t="n">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="D137" t="n">
-        <v>439</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>321.79</v>
       </c>
       <c r="F137" t="n">
-        <v>321.79</v>
+        <v>11.88</v>
       </c>
       <c r="G137" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="H137" t="n">
         <v>4.7953</v>
       </c>
     </row>
@@ -3949,24 +3536,21 @@
         <v>4</v>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="C138" t="n">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="D138" t="n">
-        <v>439</v>
+        <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>461.97</v>
       </c>
       <c r="F138" t="n">
-        <v>461.97</v>
+        <v>7.522</v>
       </c>
       <c r="G138" t="n">
-        <v>7.522</v>
-      </c>
-      <c r="H138" t="n">
         <v>4.3046</v>
       </c>
     </row>
@@ -3975,24 +3559,21 @@
         <v>4</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="D139" t="n">
-        <v>439</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
-        <v>6</v>
+        <v>487.99</v>
       </c>
       <c r="F139" t="n">
-        <v>487.99</v>
+        <v>7.4403</v>
       </c>
       <c r="G139" t="n">
-        <v>7.4403</v>
-      </c>
-      <c r="H139" t="n">
         <v>4.105</v>
       </c>
     </row>
@@ -4001,24 +3582,21 @@
         <v>4</v>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="C140" t="n">
-        <v>428</v>
+        <v>907</v>
       </c>
       <c r="D140" t="n">
-        <v>907</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>52.059</v>
       </c>
       <c r="F140" t="n">
-        <v>52.059</v>
+        <v>7.5723</v>
       </c>
       <c r="G140" t="n">
-        <v>7.5723</v>
-      </c>
-      <c r="H140" t="n">
         <v>3.8244</v>
       </c>
     </row>
@@ -4027,24 +3605,21 @@
         <v>4</v>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="C141" t="n">
-        <v>428</v>
+        <v>907</v>
       </c>
       <c r="D141" t="n">
-        <v>907</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>144.33</v>
       </c>
       <c r="F141" t="n">
-        <v>144.33</v>
+        <v>7.2698</v>
       </c>
       <c r="G141" t="n">
-        <v>7.2698</v>
-      </c>
-      <c r="H141" t="n">
         <v>3.8767</v>
       </c>
     </row>
@@ -4053,24 +3628,21 @@
         <v>4</v>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="C142" t="n">
-        <v>428</v>
+        <v>907</v>
       </c>
       <c r="D142" t="n">
-        <v>907</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>282.5</v>
       </c>
       <c r="F142" t="n">
-        <v>282.5</v>
+        <v>7.4317</v>
       </c>
       <c r="G142" t="n">
-        <v>7.4317</v>
-      </c>
-      <c r="H142" t="n">
         <v>4.0744</v>
       </c>
     </row>
@@ -4079,24 +3651,21 @@
         <v>4</v>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="C143" t="n">
-        <v>428</v>
+        <v>907</v>
       </c>
       <c r="D143" t="n">
-        <v>907</v>
+        <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>321.79</v>
       </c>
       <c r="F143" t="n">
-        <v>321.79</v>
+        <v>11.863</v>
       </c>
       <c r="G143" t="n">
-        <v>11.863</v>
-      </c>
-      <c r="H143" t="n">
         <v>4.6067</v>
       </c>
     </row>
@@ -4105,24 +3674,21 @@
         <v>4</v>
       </c>
       <c r="B144" t="n">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="C144" t="n">
-        <v>428</v>
+        <v>907</v>
       </c>
       <c r="D144" t="n">
-        <v>907</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>465.45</v>
       </c>
       <c r="F144" t="n">
-        <v>465.45</v>
+        <v>7.5048</v>
       </c>
       <c r="G144" t="n">
-        <v>7.5048</v>
-      </c>
-      <c r="H144" t="n">
         <v>4.2697</v>
       </c>
     </row>
@@ -4131,24 +3697,21 @@
         <v>4</v>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="C145" t="n">
-        <v>428</v>
+        <v>907</v>
       </c>
       <c r="D145" t="n">
-        <v>907</v>
+        <v>6</v>
       </c>
       <c r="E145" t="n">
-        <v>6</v>
+        <v>486.71</v>
       </c>
       <c r="F145" t="n">
-        <v>486.71</v>
+        <v>7.4326</v>
       </c>
       <c r="G145" t="n">
-        <v>7.4326</v>
-      </c>
-      <c r="H145" t="n">
         <v>3.9192</v>
       </c>
     </row>
@@ -4157,24 +3720,21 @@
         <v>4</v>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="C146" t="n">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="D146" t="n">
-        <v>719</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>52.322</v>
       </c>
       <c r="F146" t="n">
-        <v>52.322</v>
+        <v>7.6102</v>
       </c>
       <c r="G146" t="n">
-        <v>7.6102</v>
-      </c>
-      <c r="H146" t="n">
         <v>4.1231</v>
       </c>
     </row>
@@ -4183,24 +3743,21 @@
         <v>4</v>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="C147" t="n">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="D147" t="n">
-        <v>719</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>144.26</v>
       </c>
       <c r="F147" t="n">
-        <v>144.26</v>
+        <v>7.3199</v>
       </c>
       <c r="G147" t="n">
-        <v>7.3199</v>
-      </c>
-      <c r="H147" t="n">
         <v>4.0852</v>
       </c>
     </row>
@@ -4209,24 +3766,21 @@
         <v>4</v>
       </c>
       <c r="B148" t="n">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="C148" t="n">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="D148" t="n">
-        <v>719</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>280.12</v>
       </c>
       <c r="F148" t="n">
-        <v>280.12</v>
+        <v>7.2841</v>
       </c>
       <c r="G148" t="n">
-        <v>7.2841</v>
-      </c>
-      <c r="H148" t="n">
         <v>4.3111</v>
       </c>
     </row>
@@ -4235,24 +3789,21 @@
         <v>4</v>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="C149" t="n">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="D149" t="n">
-        <v>719</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>322.6</v>
       </c>
       <c r="F149" t="n">
-        <v>322.6</v>
+        <v>11.895</v>
       </c>
       <c r="G149" t="n">
-        <v>11.895</v>
-      </c>
-      <c r="H149" t="n">
         <v>4.8867</v>
       </c>
     </row>
@@ -4261,24 +3812,21 @@
         <v>4</v>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="C150" t="n">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="D150" t="n">
-        <v>719</v>
+        <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>469.26</v>
       </c>
       <c r="F150" t="n">
-        <v>469.26</v>
+        <v>7.4664</v>
       </c>
       <c r="G150" t="n">
-        <v>7.4664</v>
-      </c>
-      <c r="H150" t="n">
         <v>3.7699</v>
       </c>
     </row>
@@ -4287,24 +3835,21 @@
         <v>4</v>
       </c>
       <c r="B151" t="n">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="C151" t="n">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="D151" t="n">
-        <v>719</v>
+        <v>6</v>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>487.92</v>
       </c>
       <c r="F151" t="n">
-        <v>487.92</v>
+        <v>7.4562</v>
       </c>
       <c r="G151" t="n">
-        <v>7.4562</v>
-      </c>
-      <c r="H151" t="n">
         <v>4.2023</v>
       </c>
     </row>
@@ -4313,24 +3858,21 @@
         <v>5</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C152" t="n">
-        <v>257</v>
+        <v>933</v>
       </c>
       <c r="D152" t="n">
-        <v>933</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>51.747</v>
       </c>
       <c r="F152" t="n">
-        <v>51.747</v>
+        <v>7.5337</v>
       </c>
       <c r="G152" t="n">
-        <v>7.5337</v>
-      </c>
-      <c r="H152" t="n">
         <v>3.6686</v>
       </c>
     </row>
@@ -4339,24 +3881,21 @@
         <v>5</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C153" t="n">
-        <v>257</v>
+        <v>933</v>
       </c>
       <c r="D153" t="n">
-        <v>933</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>142.11</v>
       </c>
       <c r="F153" t="n">
-        <v>142.11</v>
+        <v>7.3742</v>
       </c>
       <c r="G153" t="n">
-        <v>7.3742</v>
-      </c>
-      <c r="H153" t="n">
         <v>3.9794</v>
       </c>
     </row>
@@ -4365,24 +3904,21 @@
         <v>5</v>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C154" t="n">
-        <v>257</v>
+        <v>933</v>
       </c>
       <c r="D154" t="n">
-        <v>933</v>
+        <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>279.53</v>
       </c>
       <c r="F154" t="n">
-        <v>279.53</v>
+        <v>7.3266</v>
       </c>
       <c r="G154" t="n">
-        <v>7.3266</v>
-      </c>
-      <c r="H154" t="n">
         <v>4.0717</v>
       </c>
     </row>
@@ -4391,24 +3927,21 @@
         <v>5</v>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C155" t="n">
-        <v>257</v>
+        <v>933</v>
       </c>
       <c r="D155" t="n">
-        <v>933</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>319.74</v>
       </c>
       <c r="F155" t="n">
-        <v>319.74</v>
+        <v>11.844</v>
       </c>
       <c r="G155" t="n">
-        <v>11.844</v>
-      </c>
-      <c r="H155" t="n">
         <v>4.4638</v>
       </c>
     </row>
@@ -4417,24 +3950,21 @@
         <v>5</v>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C156" t="n">
-        <v>257</v>
+        <v>933</v>
       </c>
       <c r="D156" t="n">
-        <v>933</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>467.54</v>
       </c>
       <c r="F156" t="n">
-        <v>467.54</v>
+        <v>7.4293</v>
       </c>
       <c r="G156" t="n">
-        <v>7.4293</v>
-      </c>
-      <c r="H156" t="n">
         <v>3.9938</v>
       </c>
     </row>
@@ -4443,24 +3973,21 @@
         <v>5</v>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C157" t="n">
-        <v>257</v>
+        <v>933</v>
       </c>
       <c r="D157" t="n">
-        <v>933</v>
+        <v>6</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>484.95</v>
       </c>
       <c r="F157" t="n">
-        <v>484.95</v>
+        <v>7.4147</v>
       </c>
       <c r="G157" t="n">
-        <v>7.4147</v>
-      </c>
-      <c r="H157" t="n">
         <v>3.769</v>
       </c>
     </row>
@@ -4469,24 +3996,21 @@
         <v>5</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C158" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D158" t="n">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>52.331</v>
       </c>
       <c r="F158" t="n">
-        <v>52.331</v>
+        <v>7.5484</v>
       </c>
       <c r="G158" t="n">
-        <v>7.5484</v>
-      </c>
-      <c r="H158" t="n">
         <v>4.0399</v>
       </c>
     </row>
@@ -4495,24 +4019,21 @@
         <v>5</v>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C159" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D159" t="n">
-        <v>346</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>141.95</v>
       </c>
       <c r="F159" t="n">
-        <v>141.95</v>
+        <v>7.3383</v>
       </c>
       <c r="G159" t="n">
-        <v>7.3383</v>
-      </c>
-      <c r="H159" t="n">
         <v>4.2576</v>
       </c>
     </row>
@@ -4521,24 +4042,21 @@
         <v>5</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C160" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D160" t="n">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>283.66</v>
       </c>
       <c r="F160" t="n">
-        <v>283.66</v>
+        <v>7.3781</v>
       </c>
       <c r="G160" t="n">
-        <v>7.3781</v>
-      </c>
-      <c r="H160" t="n">
         <v>3.8689</v>
       </c>
     </row>
@@ -4547,24 +4065,21 @@
         <v>5</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C161" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D161" t="n">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
+        <v>322.32</v>
       </c>
       <c r="F161" t="n">
-        <v>322.32</v>
+        <v>11.944</v>
       </c>
       <c r="G161" t="n">
-        <v>11.944</v>
-      </c>
-      <c r="H161" t="n">
         <v>4.794</v>
       </c>
     </row>
@@ -4573,24 +4088,21 @@
         <v>5</v>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C162" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D162" t="n">
-        <v>346</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>462.44</v>
       </c>
       <c r="F162" t="n">
-        <v>462.44</v>
+        <v>7.7528</v>
       </c>
       <c r="G162" t="n">
-        <v>7.7528</v>
-      </c>
-      <c r="H162" t="n">
         <v>4.2673</v>
       </c>
     </row>
@@ -4599,24 +4111,21 @@
         <v>5</v>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C163" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D163" t="n">
-        <v>346</v>
+        <v>6</v>
       </c>
       <c r="E163" t="n">
-        <v>6</v>
+        <v>488</v>
       </c>
       <c r="F163" t="n">
-        <v>488</v>
+        <v>7.4309</v>
       </c>
       <c r="G163" t="n">
-        <v>7.4309</v>
-      </c>
-      <c r="H163" t="n">
         <v>4.1165</v>
       </c>
     </row>
@@ -4625,24 +4134,21 @@
         <v>5</v>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="C164" t="n">
-        <v>566</v>
+        <v>804</v>
       </c>
       <c r="D164" t="n">
-        <v>804</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>52.18899999999999</v>
       </c>
       <c r="F164" t="n">
-        <v>52.18899999999999</v>
+        <v>7.6025</v>
       </c>
       <c r="G164" t="n">
-        <v>7.6025</v>
-      </c>
-      <c r="H164" t="n">
         <v>4.0351</v>
       </c>
     </row>
@@ -4651,24 +4157,21 @@
         <v>5</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="C165" t="n">
-        <v>566</v>
+        <v>804</v>
       </c>
       <c r="D165" t="n">
-        <v>804</v>
+        <v>2</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>144.45</v>
       </c>
       <c r="F165" t="n">
-        <v>144.45</v>
+        <v>7.2694</v>
       </c>
       <c r="G165" t="n">
-        <v>7.2694</v>
-      </c>
-      <c r="H165" t="n">
         <v>4.0812</v>
       </c>
     </row>
@@ -4677,24 +4180,21 @@
         <v>5</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="C166" t="n">
-        <v>566</v>
+        <v>804</v>
       </c>
       <c r="D166" t="n">
-        <v>804</v>
+        <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>279.08</v>
       </c>
       <c r="F166" t="n">
-        <v>279.08</v>
+        <v>7.6461</v>
       </c>
       <c r="G166" t="n">
-        <v>7.6461</v>
-      </c>
-      <c r="H166" t="n">
         <v>4.2667</v>
       </c>
     </row>
@@ -4703,24 +4203,21 @@
         <v>5</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="C167" t="n">
-        <v>566</v>
+        <v>804</v>
       </c>
       <c r="D167" t="n">
-        <v>804</v>
+        <v>4</v>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>321.87</v>
       </c>
       <c r="F167" t="n">
-        <v>321.87</v>
+        <v>11.893</v>
       </c>
       <c r="G167" t="n">
-        <v>11.893</v>
-      </c>
-      <c r="H167" t="n">
         <v>4.8104</v>
       </c>
     </row>
@@ -4729,24 +4226,21 @@
         <v>5</v>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="C168" t="n">
-        <v>566</v>
+        <v>804</v>
       </c>
       <c r="D168" t="n">
-        <v>804</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
+        <v>461.65</v>
       </c>
       <c r="F168" t="n">
-        <v>461.65</v>
+        <v>7.5392</v>
       </c>
       <c r="G168" t="n">
-        <v>7.5392</v>
-      </c>
-      <c r="H168" t="n">
         <v>4.347</v>
       </c>
     </row>
@@ -4755,24 +4249,21 @@
         <v>5</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="C169" t="n">
-        <v>566</v>
+        <v>804</v>
       </c>
       <c r="D169" t="n">
-        <v>804</v>
+        <v>6</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>487.04</v>
       </c>
       <c r="F169" t="n">
-        <v>487.04</v>
+        <v>7.4496</v>
       </c>
       <c r="G169" t="n">
-        <v>7.4496</v>
-      </c>
-      <c r="H169" t="n">
         <v>4.1199</v>
       </c>
     </row>
@@ -4781,24 +4272,21 @@
         <v>5</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="C170" t="n">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="D170" t="n">
-        <v>814</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>52.403</v>
       </c>
       <c r="F170" t="n">
-        <v>52.403</v>
+        <v>7.5612</v>
       </c>
       <c r="G170" t="n">
-        <v>7.5612</v>
-      </c>
-      <c r="H170" t="n">
         <v>3.9225</v>
       </c>
     </row>
@@ -4807,24 +4295,21 @@
         <v>5</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="C171" t="n">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="D171" t="n">
-        <v>814</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>143.28</v>
       </c>
       <c r="F171" t="n">
-        <v>143.28</v>
+        <v>7.2628</v>
       </c>
       <c r="G171" t="n">
-        <v>7.2628</v>
-      </c>
-      <c r="H171" t="n">
         <v>4.2524</v>
       </c>
     </row>
@@ -4833,24 +4318,21 @@
         <v>5</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="C172" t="n">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="D172" t="n">
-        <v>814</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>3</v>
+        <v>281.31</v>
       </c>
       <c r="F172" t="n">
-        <v>281.31</v>
+        <v>7.5452</v>
       </c>
       <c r="G172" t="n">
-        <v>7.5452</v>
-      </c>
-      <c r="H172" t="n">
         <v>4.0567</v>
       </c>
     </row>
@@ -4859,24 +4341,21 @@
         <v>5</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="C173" t="n">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="D173" t="n">
-        <v>814</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>321.38</v>
       </c>
       <c r="F173" t="n">
-        <v>321.38</v>
+        <v>11.894</v>
       </c>
       <c r="G173" t="n">
-        <v>11.894</v>
-      </c>
-      <c r="H173" t="n">
         <v>4.7233</v>
       </c>
     </row>
@@ -4885,24 +4364,21 @@
         <v>5</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="C174" t="n">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="D174" t="n">
-        <v>814</v>
+        <v>5</v>
       </c>
       <c r="E174" t="n">
-        <v>5</v>
+        <v>458.91</v>
       </c>
       <c r="F174" t="n">
-        <v>458.91</v>
+        <v>7.6472</v>
       </c>
       <c r="G174" t="n">
-        <v>7.6472</v>
-      </c>
-      <c r="H174" t="n">
         <v>4.3804</v>
       </c>
     </row>
@@ -4911,24 +4387,21 @@
         <v>5</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="C175" t="n">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="D175" t="n">
-        <v>814</v>
+        <v>6</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>488.09</v>
       </c>
       <c r="F175" t="n">
-        <v>488.09</v>
+        <v>7.4282</v>
       </c>
       <c r="G175" t="n">
-        <v>7.4282</v>
-      </c>
-      <c r="H175" t="n">
         <v>4.0136</v>
       </c>
     </row>
@@ -4937,24 +4410,21 @@
         <v>5</v>
       </c>
       <c r="B176" t="n">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="C176" t="n">
-        <v>697</v>
+        <v>953</v>
       </c>
       <c r="D176" t="n">
-        <v>953</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>51.228</v>
       </c>
       <c r="F176" t="n">
-        <v>51.228</v>
+        <v>7.5154</v>
       </c>
       <c r="G176" t="n">
-        <v>7.5154</v>
-      </c>
-      <c r="H176" t="n">
         <v>3.8343</v>
       </c>
     </row>
@@ -4963,24 +4433,21 @@
         <v>5</v>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="C177" t="n">
-        <v>697</v>
+        <v>953</v>
       </c>
       <c r="D177" t="n">
-        <v>953</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>140.97</v>
       </c>
       <c r="F177" t="n">
-        <v>140.97</v>
+        <v>7.3349</v>
       </c>
       <c r="G177" t="n">
-        <v>7.3349</v>
-      </c>
-      <c r="H177" t="n">
         <v>4.1535</v>
       </c>
     </row>
@@ -4989,24 +4456,21 @@
         <v>5</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="C178" t="n">
-        <v>697</v>
+        <v>953</v>
       </c>
       <c r="D178" t="n">
-        <v>953</v>
+        <v>3</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>280.35</v>
       </c>
       <c r="F178" t="n">
-        <v>280.35</v>
+        <v>7.3958</v>
       </c>
       <c r="G178" t="n">
-        <v>7.3958</v>
-      </c>
-      <c r="H178" t="n">
         <v>3.8834</v>
       </c>
     </row>
@@ -5015,24 +4479,21 @@
         <v>5</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="C179" t="n">
-        <v>697</v>
+        <v>953</v>
       </c>
       <c r="D179" t="n">
-        <v>953</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>320.54</v>
       </c>
       <c r="F179" t="n">
-        <v>320.54</v>
+        <v>11.862</v>
       </c>
       <c r="G179" t="n">
-        <v>11.862</v>
-      </c>
-      <c r="H179" t="n">
         <v>4.5851</v>
       </c>
     </row>
@@ -5041,24 +4502,21 @@
         <v>5</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="C180" t="n">
-        <v>697</v>
+        <v>953</v>
       </c>
       <c r="D180" t="n">
-        <v>953</v>
+        <v>5</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>466.46</v>
       </c>
       <c r="F180" t="n">
-        <v>466.46</v>
+        <v>7.5008</v>
       </c>
       <c r="G180" t="n">
-        <v>7.5008</v>
-      </c>
-      <c r="H180" t="n">
         <v>3.8151</v>
       </c>
     </row>
@@ -5067,24 +4525,21 @@
         <v>5</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="C181" t="n">
-        <v>697</v>
+        <v>953</v>
       </c>
       <c r="D181" t="n">
-        <v>953</v>
+        <v>6</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>481.99</v>
       </c>
       <c r="F181" t="n">
-        <v>481.99</v>
+        <v>7.4038</v>
       </c>
       <c r="G181" t="n">
-        <v>7.4038</v>
-      </c>
-      <c r="H181" t="n">
         <v>3.9153</v>
       </c>
     </row>
